--- a/data/pca/factorExposure/factorExposure_2012-11-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-29.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0007475405039517816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002061723864557664</v>
+      </c>
+      <c r="C2">
+        <v>-0.03106477274889802</v>
+      </c>
+      <c r="D2">
+        <v>0.004402118648697589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004344310599889213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006825233913684637</v>
+      </c>
+      <c r="C4">
+        <v>-0.08329232166626623</v>
+      </c>
+      <c r="D4">
+        <v>0.07586952204615115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004950316324730584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01452060108482674</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144549385247173</v>
+      </c>
+      <c r="D6">
+        <v>0.03397143289625498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001707682007538454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004711286493491298</v>
+      </c>
+      <c r="C7">
+        <v>-0.05775471448579033</v>
+      </c>
+      <c r="D7">
+        <v>0.03150718712736263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003305671426790807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005663758375505528</v>
+      </c>
+      <c r="C8">
+        <v>-0.03698743508589421</v>
+      </c>
+      <c r="D8">
+        <v>0.04196112148007639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003670537613162711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004791294420222134</v>
+      </c>
+      <c r="C9">
+        <v>-0.07052498318655501</v>
+      </c>
+      <c r="D9">
+        <v>0.0735657358126702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002257689064785828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005714067364654043</v>
+      </c>
+      <c r="C10">
+        <v>-0.05778783811883713</v>
+      </c>
+      <c r="D10">
+        <v>-0.1965547102509637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002642087963748303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005824098085313991</v>
+      </c>
+      <c r="C11">
+        <v>-0.07981310180875359</v>
+      </c>
+      <c r="D11">
+        <v>0.06017595276050173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001437934712623872</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004175642020941797</v>
+      </c>
+      <c r="C12">
+        <v>-0.06414139655523828</v>
+      </c>
+      <c r="D12">
+        <v>0.04692918940367265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.0008194501015960446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.00866558214424395</v>
+      </c>
+      <c r="C13">
+        <v>-0.06858966151880472</v>
+      </c>
+      <c r="D13">
+        <v>0.05766055394108236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001176522772058335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001205809828862244</v>
+      </c>
+      <c r="C14">
+        <v>-0.04408036589445243</v>
+      </c>
+      <c r="D14">
+        <v>0.006286774837343977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.000613860226155539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005978107934604095</v>
+      </c>
+      <c r="C15">
+        <v>-0.04158460832392284</v>
+      </c>
+      <c r="D15">
+        <v>0.03102206196623978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005150065188806769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005118628018780724</v>
+      </c>
+      <c r="C16">
+        <v>-0.06447940856175717</v>
+      </c>
+      <c r="D16">
+        <v>0.05168222766624915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6.388646782895414e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008657111014640359</v>
+      </c>
+      <c r="C20">
+        <v>-0.06548826489838019</v>
+      </c>
+      <c r="D20">
+        <v>0.04258115246829379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005539575159698423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009775875638253344</v>
+      </c>
+      <c r="C21">
+        <v>-0.02156487244042392</v>
+      </c>
+      <c r="D21">
+        <v>0.03859722907067417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01658687198937546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006058456949811523</v>
+      </c>
+      <c r="C22">
+        <v>-0.09386637424420076</v>
+      </c>
+      <c r="D22">
+        <v>0.1167141212798925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.0169309524187605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.005882637556137039</v>
+      </c>
+      <c r="C23">
+        <v>-0.09468302110099638</v>
+      </c>
+      <c r="D23">
+        <v>0.1167359738560696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001581963569113052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005614604542305391</v>
+      </c>
+      <c r="C24">
+        <v>-0.07704509503743516</v>
+      </c>
+      <c r="D24">
+        <v>0.06484697978626509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.00432736622169617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003190732503622882</v>
+      </c>
+      <c r="C25">
+        <v>-0.07785498528046794</v>
+      </c>
+      <c r="D25">
+        <v>0.06601964809676626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003753444729562296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003695053981231676</v>
+      </c>
+      <c r="C26">
+        <v>-0.0409859438861386</v>
+      </c>
+      <c r="D26">
+        <v>0.02156399427060504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004948547506578032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.000642641371477904</v>
+      </c>
+      <c r="C28">
+        <v>-0.1076084766734199</v>
+      </c>
+      <c r="D28">
+        <v>-0.320545142410692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001678055402910536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003042707077273729</v>
+      </c>
+      <c r="C29">
+        <v>-0.04972413234310406</v>
+      </c>
+      <c r="D29">
+        <v>0.009302201259708988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002666570579821399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.01004919817038305</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417210082817053</v>
+      </c>
+      <c r="D30">
+        <v>0.1040730662429631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0007321611989401495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006365799584247223</v>
+      </c>
+      <c r="C31">
+        <v>-0.04440153417004686</v>
+      </c>
+      <c r="D31">
+        <v>0.02893706757565041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000278101694292311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00407106326655435</v>
+      </c>
+      <c r="C32">
+        <v>-0.03844567588173879</v>
+      </c>
+      <c r="D32">
+        <v>0.02443370875718228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001705552907725889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008746337321919496</v>
+      </c>
+      <c r="C33">
+        <v>-0.08667699339466428</v>
+      </c>
+      <c r="D33">
+        <v>0.06485256903067656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004712436333796699</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004056427439172036</v>
+      </c>
+      <c r="C34">
+        <v>-0.05726848204654166</v>
+      </c>
+      <c r="D34">
+        <v>0.05377221715047412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006640664674170516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.00508465816717327</v>
+      </c>
+      <c r="C35">
+        <v>-0.04004056676935379</v>
+      </c>
+      <c r="D35">
+        <v>0.01944251000097176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003793703056755842</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00104709356755247</v>
+      </c>
+      <c r="C36">
+        <v>-0.02503105858150838</v>
+      </c>
+      <c r="D36">
+        <v>0.02125856235206702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001827682881266177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009244930648685616</v>
+      </c>
+      <c r="C38">
+        <v>-0.03425525688277238</v>
+      </c>
+      <c r="D38">
+        <v>0.0147249062424527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01273649385931472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0007165874755301466</v>
+      </c>
+      <c r="C39">
+        <v>-0.115604043936528</v>
+      </c>
+      <c r="D39">
+        <v>0.07548027449356515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009658680749858537</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002777506541982469</v>
+      </c>
+      <c r="C40">
+        <v>-0.09025409912187903</v>
+      </c>
+      <c r="D40">
+        <v>0.01454701160839804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009600103596027742</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007364234740021069</v>
+      </c>
+      <c r="C41">
+        <v>-0.03778684072293835</v>
+      </c>
+      <c r="D41">
+        <v>0.03847494455002034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003134124179887877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004010092105734089</v>
+      </c>
+      <c r="C43">
+        <v>-0.05315256689915453</v>
+      </c>
+      <c r="D43">
+        <v>0.0243993705296242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005792757854976087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003070297750066669</v>
+      </c>
+      <c r="C44">
+        <v>-0.1095033533660557</v>
+      </c>
+      <c r="D44">
+        <v>0.06684870111539393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001306418036444863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001933315266106664</v>
+      </c>
+      <c r="C46">
+        <v>-0.03329085234803385</v>
+      </c>
+      <c r="D46">
+        <v>0.0352528879874136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003837150650344245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002720037420735275</v>
+      </c>
+      <c r="C47">
+        <v>-0.03696762181923052</v>
+      </c>
+      <c r="D47">
+        <v>0.02248983770348527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004321256407072289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006789182929405652</v>
+      </c>
+      <c r="C48">
+        <v>-0.03098467268173883</v>
+      </c>
+      <c r="D48">
+        <v>0.03251273753581327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01127259002736657</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01624171837900651</v>
+      </c>
+      <c r="C49">
+        <v>-0.1850289020217034</v>
+      </c>
+      <c r="D49">
+        <v>0.01546924507538459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001367227518532077</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003757264735035028</v>
+      </c>
+      <c r="C50">
+        <v>-0.04351154788108698</v>
+      </c>
+      <c r="D50">
+        <v>0.03726918835869633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001129022978037747</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004792634220337651</v>
+      </c>
+      <c r="C51">
+        <v>-0.02544359349705927</v>
+      </c>
+      <c r="D51">
+        <v>0.02043788463386385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001003765869131364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02124678655897204</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698032691033829</v>
+      </c>
+      <c r="D53">
+        <v>0.02689644386364704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001294320281700699</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008967529603390768</v>
+      </c>
+      <c r="C54">
+        <v>-0.05475876561627256</v>
+      </c>
+      <c r="D54">
+        <v>0.04358688571460337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004255222194616561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009545207848539246</v>
+      </c>
+      <c r="C55">
+        <v>-0.1106360009530259</v>
+      </c>
+      <c r="D55">
+        <v>0.03810658428072367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001888858170962385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02043917117525119</v>
+      </c>
+      <c r="C56">
+        <v>-0.174132314334945</v>
+      </c>
+      <c r="D56">
+        <v>0.01862452181447142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00765561528818611</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01953575850456933</v>
+      </c>
+      <c r="C58">
+        <v>-0.1093768503624829</v>
+      </c>
+      <c r="D58">
+        <v>0.06218467629069591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007228812448847658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01013451361118142</v>
+      </c>
+      <c r="C59">
+        <v>-0.1650579980902259</v>
+      </c>
+      <c r="D59">
+        <v>-0.3293309746064562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003532052026580036</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02502069101779543</v>
+      </c>
+      <c r="C60">
+        <v>-0.2226957870880179</v>
+      </c>
+      <c r="D60">
+        <v>0.03115146844257522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01420640248980474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001586788005054021</v>
+      </c>
+      <c r="C61">
+        <v>-0.0943979890440932</v>
+      </c>
+      <c r="D61">
+        <v>0.05615532247376824</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1634441083772256</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1469916268513988</v>
+      </c>
+      <c r="C62">
+        <v>-0.09268790604122483</v>
+      </c>
+      <c r="D62">
+        <v>0.03711727512286742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0003059269133001967</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006598715700304182</v>
+      </c>
+      <c r="C63">
+        <v>-0.05483259907855461</v>
+      </c>
+      <c r="D63">
+        <v>0.0267654451487789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0005431984535849196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01506651532531402</v>
+      </c>
+      <c r="C64">
+        <v>-0.1051501843715646</v>
+      </c>
+      <c r="D64">
+        <v>0.05990284659908201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.00274315017727346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01799295496426226</v>
+      </c>
+      <c r="C65">
+        <v>-0.1246156882128395</v>
+      </c>
+      <c r="D65">
+        <v>0.02480899436822033</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007224319908834399</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01323876480527322</v>
+      </c>
+      <c r="C66">
+        <v>-0.159155289861476</v>
+      </c>
+      <c r="D66">
+        <v>0.111843869124468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003602982490208233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01566949112909682</v>
+      </c>
+      <c r="C67">
+        <v>-0.0653473376002493</v>
+      </c>
+      <c r="D67">
+        <v>0.02614309638634976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005446110783971459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001204119300332852</v>
+      </c>
+      <c r="C68">
+        <v>-0.08681542538248127</v>
+      </c>
+      <c r="D68">
+        <v>-0.2610408859613025</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002078900587233797</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00593987608928728</v>
+      </c>
+      <c r="C69">
+        <v>-0.05040553340517117</v>
+      </c>
+      <c r="D69">
+        <v>0.03846019859844436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.155449473809816e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001813201573628534</v>
+      </c>
+      <c r="C70">
+        <v>-0.002795973294340551</v>
+      </c>
+      <c r="D70">
+        <v>0.0009203391211933872</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.000846845716042206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006379777283165682</v>
+      </c>
+      <c r="C71">
+        <v>-0.0942202836734385</v>
+      </c>
+      <c r="D71">
+        <v>-0.3043697850203143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003470853253478373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01632300918222261</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530467717814873</v>
+      </c>
+      <c r="D72">
+        <v>0.01574122951156229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01131159274396629</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03153302395898654</v>
+      </c>
+      <c r="C73">
+        <v>-0.278931150414075</v>
+      </c>
+      <c r="D73">
+        <v>0.05526604892818244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005393929740830494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002074342299585061</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043812205780261</v>
+      </c>
+      <c r="D74">
+        <v>0.0340009943787392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002799794063484847</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01148001722803373</v>
+      </c>
+      <c r="C75">
+        <v>-0.1254895357301513</v>
+      </c>
+      <c r="D75">
+        <v>0.0223215611902494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007871461690953017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02234770473935841</v>
+      </c>
+      <c r="C76">
+        <v>-0.1491962703301863</v>
+      </c>
+      <c r="D76">
+        <v>0.057805324814891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003563960963656086</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02294248389121158</v>
+      </c>
+      <c r="C77">
+        <v>-0.1202494047690457</v>
+      </c>
+      <c r="D77">
+        <v>0.08073596445384025</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001444383670416018</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01512800437134912</v>
+      </c>
+      <c r="C78">
+        <v>-0.09669434710218069</v>
+      </c>
+      <c r="D78">
+        <v>0.07094932317435379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02377520950312073</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03822801023639022</v>
+      </c>
+      <c r="C79">
+        <v>-0.157512407345154</v>
+      </c>
+      <c r="D79">
+        <v>0.03139684203853186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005893360243846409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01011153357425091</v>
+      </c>
+      <c r="C80">
+        <v>-0.03976214150171897</v>
+      </c>
+      <c r="D80">
+        <v>0.02914493856030581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0007437352818815743</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01622876552335079</v>
+      </c>
+      <c r="C81">
+        <v>-0.1287979391983568</v>
+      </c>
+      <c r="D81">
+        <v>0.04036600281413692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00390777638280514</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02013837621350715</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419055648503307</v>
+      </c>
+      <c r="D82">
+        <v>0.03565325855874537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008501301581988368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009984111634215439</v>
+      </c>
+      <c r="C83">
+        <v>-0.05517298932417952</v>
+      </c>
+      <c r="D83">
+        <v>0.05486255841125561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01203404173873123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01149856210041272</v>
+      </c>
+      <c r="C84">
+        <v>-0.03620757672841244</v>
+      </c>
+      <c r="D84">
+        <v>-0.003492405235564522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01375111653244286</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02916608009662553</v>
+      </c>
+      <c r="C85">
+        <v>-0.1257557954584535</v>
+      </c>
+      <c r="D85">
+        <v>0.04276421918106323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.00227335131996124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005011456873317532</v>
+      </c>
+      <c r="C86">
+        <v>-0.04946135556442108</v>
+      </c>
+      <c r="D86">
+        <v>0.03087933113687451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.002816038324824324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01094787187538896</v>
+      </c>
+      <c r="C87">
+        <v>-0.1285534284096918</v>
+      </c>
+      <c r="D87">
+        <v>0.07206481851215181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01123640960552669</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002807214633546517</v>
+      </c>
+      <c r="C88">
+        <v>-0.06450205880891875</v>
+      </c>
+      <c r="D88">
+        <v>0.01971567863878452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01378812639780635</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001226218272054242</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466076661602732</v>
+      </c>
+      <c r="D89">
+        <v>-0.3296241710546518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0005979166875903836</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007084730216922848</v>
+      </c>
+      <c r="C90">
+        <v>-0.1206119648961632</v>
+      </c>
+      <c r="D90">
+        <v>-0.316933115441125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0003813602794051569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01055738454671272</v>
+      </c>
+      <c r="C91">
+        <v>-0.1001871105430055</v>
+      </c>
+      <c r="D91">
+        <v>0.02283867578292209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008413329770938519</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001422895880771306</v>
+      </c>
+      <c r="C92">
+        <v>-0.1363737071779392</v>
+      </c>
+      <c r="D92">
+        <v>-0.3240997211130984</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002866297296497707</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005303176011596135</v>
+      </c>
+      <c r="C93">
+        <v>-0.1057465239810363</v>
+      </c>
+      <c r="D93">
+        <v>-0.3011872971608288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002814120917827685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0227442023570779</v>
+      </c>
+      <c r="C94">
+        <v>-0.1464992570218403</v>
+      </c>
+      <c r="D94">
+        <v>0.05106910370934796</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004975603206692243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01685615642988853</v>
+      </c>
+      <c r="C95">
+        <v>-0.1240737270676477</v>
+      </c>
+      <c r="D95">
+        <v>0.06120201952135697</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0003391994511935739</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03677408259945712</v>
+      </c>
+      <c r="C97">
+        <v>-0.2141206532343055</v>
+      </c>
+      <c r="D97">
+        <v>-0.009072168112251774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003113025688394441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03753463531848554</v>
+      </c>
+      <c r="C98">
+        <v>-0.2500577834477734</v>
+      </c>
+      <c r="D98">
+        <v>0.04642107884315696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9848442599567111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9816218242233002</v>
+      </c>
+      <c r="C99">
+        <v>0.119253091137771</v>
+      </c>
+      <c r="D99">
+        <v>-0.02572271351509918</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001599712692119048</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003076051795500371</v>
+      </c>
+      <c r="C101">
+        <v>-0.04983825788688643</v>
+      </c>
+      <c r="D101">
+        <v>0.009670165682764438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
